--- a/classfiers/chain/elm/smote/chain_elm_rbf_linf_smote_results.xlsx
+++ b/classfiers/chain/elm/smote/chain_elm_rbf_linf_smote_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4839453896399817</v>
+        <v>0.5426272183424695</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4708163808509829</v>
+        <v>0.516025641025641</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4918569254185692</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4845642680842984</v>
+        <v>0.5202223451883897</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4634367368742369</v>
+        <v>0.5164812942366027</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4789239401736138</v>
+        <v>0.5162141569014778</v>
       </c>
     </row>
   </sheetData>
